--- a/Projects/power/Project Outputs for PowerSystem/BOM/Bill of Materials-PowerSystem.xlsx
+++ b/Projects/power/Project Outputs for PowerSystem/BOM/Bill of Materials-PowerSystem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f752fa60efbb4bf/Documents/Robotics/git2/rover-pcb/Projects/power/Project Outputs for PowerSystem/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{55BA09F2-32D3-4A97-BAE4-5973BBA69B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{646C8AD4-B5AC-41EA-A89A-B24DF7E0335C}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CF0ED19C-5F00-475C-A6AA-49F346D37441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B2E10B5-11DD-4FA6-9076-5EFDBBD5B30E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="12288" windowHeight="8496" xr2:uid="{60EDED5F-A744-48E0-91E9-0B560AD2239C}"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="12288" windowHeight="8496" xr2:uid="{2C820439-CF6D-4A58-9E93-B285CC38C392}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PowerSystem" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{DA86DDC7-2537-468E-BC95-2F9BB179CEB4}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B9C1CE4B-644B-407E-B80F-9D735BC27002}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -895,7 +895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B461B5-8F7A-4868-AE3E-B81D6713C6AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A33123-F3FF-4297-A80B-2F468EF21B37}">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Projects/power/Project Outputs for PowerSystem/BOM/Bill of Materials-PowerSystem.xlsx
+++ b/Projects/power/Project Outputs for PowerSystem/BOM/Bill of Materials-PowerSystem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f752fa60efbb4bf/Documents/Robotics/git2/rover-pcb/Projects/power/Project Outputs for PowerSystem/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{CF0ED19C-5F00-475C-A6AA-49F346D37441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B2E10B5-11DD-4FA6-9076-5EFDBBD5B30E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C3EB7891-EE4A-47F3-BC72-D3C846F8C74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{320287DF-3DEA-4137-8AF3-23A3F14CC756}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="12288" windowHeight="8496" xr2:uid="{2C820439-CF6D-4A58-9E93-B285CC38C392}"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="12288" windowHeight="8496" xr2:uid="{DBAA0F5E-6C21-446D-ADF9-CC78D2ADD016}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PowerSystem" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B9C1CE4B-644B-407E-B80F-9D735BC27002}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{2F45379F-FF92-40A3-A105-51042FE3B700}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -895,7 +895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A33123-F3FF-4297-A80B-2F468EF21B37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E73B131-ACA4-49FA-85AA-4730AC2F0797}">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Projects/power/Project Outputs for PowerSystem/BOM/Bill of Materials-PowerSystem.xlsx
+++ b/Projects/power/Project Outputs for PowerSystem/BOM/Bill of Materials-PowerSystem.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f752fa60efbb4bf/Documents/Robotics/git2/rover-pcb/Projects/power/Project Outputs for PowerSystem/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C3EB7891-EE4A-47F3-BC72-D3C846F8C74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{320287DF-3DEA-4137-8AF3-23A3F14CC756}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{C3EB7891-EE4A-47F3-BC72-D3C846F8C74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43999CA8-059A-4E8B-AC8B-10B8673F47C8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="12288" windowHeight="8496" xr2:uid="{DBAA0F5E-6C21-446D-ADF9-CC78D2ADD016}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DBAA0F5E-6C21-446D-ADF9-CC78D2ADD016}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bill of Materials-PowerSystem" sheetId="1" r:id="rId1"/>
+    <sheet name="Bill of Materials-PowerSyst (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Bill of Materials-PowerSystem" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="160">
   <si>
     <t>Comment</t>
   </si>
@@ -511,6 +512,9 @@
   </si>
   <si>
     <t>403C35E16M00000</t>
+  </si>
+  <si>
+    <t>J8</t>
   </si>
 </sst>
 </file>
@@ -532,7 +536,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +546,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,13 +595,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,10 +923,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E73B131-ACA4-49FA-85AA-4730AC2F0797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3D8585-09F1-4A03-87D2-1C944B4615DA}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -926,6 +956,805 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E73B131-ACA4-49FA-85AA-4730AC2F0797}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
